--- a/prs/2019-03-05_study_list.xlsx
+++ b/prs/2019-03-05_study_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FOLK\Documents\Work\Bioinformatics\2018-05-25_real-impute-me\prs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CDF9C8-A8D3-4367-AE35-B66109EB3886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>PMID</t>
   </si>
@@ -88,9 +89,6 @@
   </si>
   <si>
     <t>OPEN</t>
-  </si>
-  <si>
-    <t>27479909</t>
   </si>
   <si>
     <t>major_depressive_disorder_27479909</t>
@@ -297,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,11 +623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:L17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -667,24 +665,24 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>73</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>74</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>75</v>
-      </c>
-      <c r="M1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -733,7 +731,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -765,7 +763,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -791,10 +789,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>30482948</v>
@@ -814,10 +812,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>22472876</v>
@@ -855,10 +853,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>29942085</v>
@@ -878,10 +876,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -901,10 +899,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>21173776</v>
@@ -925,7 +923,7 @@
         <v>0.4</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L10">
         <v>21173776</v>
@@ -936,10 +934,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
         <v>23</v>
+      </c>
+      <c r="C11">
+        <v>27479909</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -956,19 +954,31 @@
       <c r="H11">
         <v>2016</v>
       </c>
+      <c r="I11">
+        <v>0.05</v>
+      </c>
+      <c r="J11">
+        <v>0.3</v>
+      </c>
+      <c r="K11">
+        <v>27479909</v>
+      </c>
+      <c r="L11">
+        <v>27089181</v>
+      </c>
       <c r="M11" s="1">
         <v>43542</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>154</v>
@@ -982,13 +992,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
       </c>
       <c r="E13">
         <v>24269</v>
@@ -1008,13 +1018,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>28067908</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>40266</v>
@@ -1034,13 +1044,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>59957</v>
@@ -1060,13 +1070,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>45975</v>
@@ -1086,16 +1096,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17">
         <v>27225129</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>328917</v>
@@ -1110,7 +1120,7 @@
         <v>0.2</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L17">
         <v>27225129</v>
@@ -1121,13 +1131,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
         <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
       </c>
       <c r="E18">
         <v>17767</v>
@@ -1147,13 +1157,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
         <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
       </c>
       <c r="E19">
         <v>16731</v>
@@ -1173,16 +1183,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>40255</v>
@@ -1202,13 +1212,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>51710</v>
@@ -1228,16 +1238,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22">
         <v>27089181</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>161460</v>
@@ -1245,22 +1255,34 @@
       <c r="H22">
         <v>2016</v>
       </c>
+      <c r="I22">
+        <v>0.1</v>
+      </c>
+      <c r="J22">
+        <v>0.3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22">
+        <v>27089181</v>
+      </c>
       <c r="M22" s="1">
         <v>43542</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23">
         <v>17375</v>
@@ -1275,7 +1297,7 @@
         <v>0.4</v>
       </c>
       <c r="K23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L23">
         <v>21173776</v>
@@ -1286,10 +1308,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
@@ -1306,13 +1328,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
         <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
       </c>
       <c r="E25">
         <v>24751</v>
@@ -1332,13 +1354,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26">
         <v>27089181</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>208420</v>
@@ -1352,16 +1374,16 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27">
         <v>25056061</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27">
         <v>77171</v>
@@ -1382,7 +1404,7 @@
         <v>0.8</v>
       </c>
       <c r="K27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L27">
         <v>26523775</v>
@@ -1393,13 +1415,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
         <v>54</v>
-      </c>
-      <c r="D28" t="s">
-        <v>55</v>
       </c>
       <c r="E28">
         <v>61220</v>

--- a/prs/2019-03-05_study_list.xlsx
+++ b/prs/2019-03-05_study_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FOLK\Documents\Work\Bioinformatics\2018-05-25_real-impute-me\prs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CDF9C8-A8D3-4367-AE35-B66109EB3886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B380A4-16C3-425D-B8FD-76CB00670BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,9 +214,6 @@
     <t>agreeableness_21173776</t>
   </si>
   <si>
-    <t>adhd_30478444</t>
-  </si>
-  <si>
     <t>alcohol_30482948</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>no source</t>
+  </si>
+  <si>
+    <t>attention_deficit_hyperactivity_disorder_</t>
   </si>
 </sst>
 </file>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
         <v>71</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>74</v>
-      </c>
-      <c r="M1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>30482948</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>22472876</v>
@@ -856,7 +856,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>29942085</v>
@@ -876,10 +876,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>21173776</v>
@@ -923,7 +923,7 @@
         <v>0.4</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L10">
         <v>21173776</v>
@@ -1099,7 +1099,7 @@
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17">
         <v>27225129</v>
@@ -1120,7 +1120,7 @@
         <v>0.2</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L17">
         <v>27225129</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -1186,7 +1186,7 @@
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -1241,7 +1241,7 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <v>27089181</v>
@@ -1262,7 +1262,7 @@
         <v>0.3</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L22">
         <v>27089181</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -1297,7 +1297,7 @@
         <v>0.4</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L23">
         <v>21173776</v>
@@ -1377,7 +1377,7 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27">
         <v>25056061</v>
@@ -1404,7 +1404,7 @@
         <v>0.8</v>
       </c>
       <c r="K27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L27">
         <v>26523775</v>

--- a/prs/2019-03-05_study_list.xlsx
+++ b/prs/2019-03-05_study_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FOLK\Documents\Work\Bioinformatics\2018-05-25_real-impute-me\prs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B380A4-16C3-425D-B8FD-76CB00670BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02347C0B-F2CF-4D53-A0CD-28594AC13F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
   <si>
     <t>PMID</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>attention_deficit_hyperactivity_disorder_</t>
+  </si>
+  <si>
+    <t>own_studies_20190916</t>
   </si>
 </sst>
 </file>
@@ -626,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,6 +809,12 @@
       <c r="H6">
         <v>2018</v>
       </c>
+      <c r="J6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L6">
+        <v>19785977</v>
+      </c>
       <c r="M6" s="1">
         <v>43542</v>
       </c>
@@ -1205,6 +1214,18 @@
       </c>
       <c r="H20">
         <v>2016</v>
+      </c>
+      <c r="I20">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="J20">
+        <v>0.7</v>
+      </c>
+      <c r="K20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>27329760</v>
       </c>
       <c r="M20" s="1">
         <v>43542</v>

--- a/prs/2019-03-05_study_list.xlsx
+++ b/prs/2019-03-05_study_list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FOLK\Documents\Work\Bioinformatics\2018-05-25_real-impute-me\prs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D099088B-00E4-43A3-B8C0-0F7BF019D4DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84041A8F-F718-43B9-A007-4D4C4D750276}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="158">
   <si>
     <t>PMID</t>
   </si>
@@ -107,9 +107,6 @@
     <t>psoriasis_23143594</t>
   </si>
   <si>
-    <t>CeD</t>
-  </si>
-  <si>
     <t>celiac_disease_22057235</t>
   </si>
   <si>
@@ -182,15 +179,6 @@
     <t>schizophrenia_25056061</t>
   </si>
   <si>
-    <t>23453885</t>
-  </si>
-  <si>
-    <t>CPD</t>
-  </si>
-  <si>
-    <t>autism_spectrum_disorder,_attention_deficit-hyperactivity_disorder,_bipolar_disorder,_major_depressive_disorder,_and_schizophrenia_combined_23453885</t>
-  </si>
-  <si>
     <t>neuroticism_29942085</t>
   </si>
   <si>
@@ -338,9 +326,6 @@
     <t>age-related_macular_degeneration_29566793</t>
   </si>
   <si>
-    <t>anxiety_disorder_26754954</t>
-  </si>
-  <si>
     <t>coronary_artery_disease_26343387</t>
   </si>
   <si>
@@ -362,9 +347,6 @@
     <t>AD_sumstats_Jansenetal.txt.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">anorexia_nervosa_31308545 </t>
-  </si>
-  <si>
     <t>pgc.ed.freeze1.July2017.zip</t>
   </si>
   <si>
@@ -414,25 +396,124 @@
   </si>
   <si>
     <t>attention_deficit_hyperactivity_disorder_30478444</t>
+  </si>
+  <si>
+    <t>LF_2019-10-14</t>
+  </si>
+  <si>
+    <t>anxiety_disorder_26754954_fs</t>
+  </si>
+  <si>
+    <t>anxiety_disorder_26754954_cs</t>
+  </si>
+  <si>
+    <t>Celiac_disease</t>
+  </si>
+  <si>
+    <t>anorexia_nervosa_31308545</t>
+  </si>
+  <si>
+    <t>rheumatoid_arthritis_24390342</t>
+  </si>
+  <si>
+    <t>RA_GWASmeta_European_v2.txt.gz</t>
+  </si>
+  <si>
+    <t>Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>LF_2020-01-23</t>
+  </si>
+  <si>
+    <t>brca12-negative_high-risk_breast_cancer_30323354</t>
+  </si>
+  <si>
+    <t>brcax_summaryStats.txt</t>
+  </si>
+  <si>
+    <t>breast cancer</t>
+  </si>
+  <si>
+    <t>colorectal_cancer_29471430</t>
+  </si>
+  <si>
+    <t>Colorectal_Cancer_All_by_1000genomes_Imputation.tar.gz</t>
+  </si>
+  <si>
+    <t>colon cancer</t>
+  </si>
+  <si>
+    <t>posttraumatic_stress_disorder_28439101</t>
+  </si>
+  <si>
+    <t>pts_all_freeze2_overall.results.gz</t>
+  </si>
+  <si>
+    <t>Posttraumatic stress disorder</t>
+  </si>
+  <si>
+    <t>osteoarthritis_30664745</t>
+  </si>
+  <si>
+    <t>Tachmazidou_30664745_ALLOA.txt.gz</t>
+  </si>
+  <si>
+    <t>Osteoarthritis</t>
+  </si>
+  <si>
+    <t>narcolepsy_30804565</t>
+  </si>
+  <si>
+    <t>Dozing_sumstats_Jansenetal.txt.gz</t>
+  </si>
+  <si>
+    <t>Narcolepsy</t>
+  </si>
+  <si>
+    <t>migraine_31427789</t>
+  </si>
+  <si>
+    <t>20002_1265_logistic.EUR.sumstats.MACfilt.txt.gz</t>
+  </si>
+  <si>
+    <t>Migraine</t>
+  </si>
+  <si>
+    <t>hypertension_31427789</t>
+  </si>
+  <si>
+    <t>20002_1065_logistic.EUR.sumstats.MACfilt.txt.gz</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>hematocrit_27863252</t>
+  </si>
+  <si>
+    <t>hct_N173039_narrow_form.tsv.gz</t>
+  </si>
+  <si>
+    <t>Hematocrit</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>30482948</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -455,10 +536,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -757,13 +837,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,20 +852,20 @@
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="3" customWidth="1"/>
     <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -806,24 +886,27 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -838,10 +921,10 @@
         <v>2012</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -864,15 +947,15 @@
         <v>2013</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -892,19 +975,19 @@
       <c r="K4">
         <v>0.65</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>29942086</v>
       </c>
       <c r="M4">
         <v>29942086</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>30478444</v>
@@ -925,15 +1008,15 @@
         <v>2017</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>30482948</v>
@@ -947,22 +1030,28 @@
       <c r="I6">
         <v>2018</v>
       </c>
+      <c r="J6">
+        <v>0.09</v>
+      </c>
       <c r="K6">
         <v>0.55000000000000004</v>
       </c>
+      <c r="L6" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="M6">
         <v>19785977</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D7">
         <v>22472876</v>
@@ -988,22 +1077,22 @@
       <c r="K7">
         <v>0.3</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>27089181</v>
       </c>
       <c r="M7">
         <v>27089181</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D8">
         <v>29942085</v>
@@ -1018,15 +1107,15 @@
         <v>2018</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -1041,15 +1130,15 @@
         <v>2018</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>21173776</v>
@@ -1069,17 +1158,17 @@
       <c r="K10">
         <v>0.4</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>86</v>
+      <c r="L10" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="M10">
         <v>21173776</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1107,17 +1196,17 @@
       <c r="K11">
         <v>0.3</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>27479909</v>
       </c>
       <c r="M11">
         <v>27089181</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1134,819 +1223,1112 @@
         <v>2012</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>28067908</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>40266</v>
+      </c>
+      <c r="G13">
+        <v>12194</v>
+      </c>
+      <c r="H13">
+        <v>28072</v>
+      </c>
+      <c r="I13">
+        <v>2017</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
-        <v>22057235</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3">
-        <v>24269</v>
-      </c>
-      <c r="G13" s="3">
-        <v>12041</v>
-      </c>
-      <c r="H13" s="3">
-        <v>12228</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2011</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14">
-        <v>28067908</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14">
-        <v>40266</v>
+        <v>59957</v>
       </c>
       <c r="G14">
-        <v>12194</v>
+        <v>25042</v>
       </c>
       <c r="H14">
-        <v>28072</v>
+        <v>34915</v>
       </c>
       <c r="I14">
         <v>2017</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15">
-        <v>59957</v>
+        <v>45975</v>
       </c>
       <c r="G15">
-        <v>25042</v>
+        <v>12366</v>
       </c>
       <c r="H15">
-        <v>34915</v>
+        <v>33609</v>
       </c>
       <c r="I15">
         <v>2017</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16">
+        <v>27225129</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
       </c>
       <c r="F16">
-        <v>45975</v>
-      </c>
-      <c r="G16">
-        <v>12366</v>
-      </c>
-      <c r="H16">
-        <v>33609</v>
+        <v>328917</v>
       </c>
       <c r="I16">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="J16">
+        <v>0.05</v>
+      </c>
+      <c r="K16">
+        <v>0.2</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16">
+        <v>27225129</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17">
-        <v>27225129</v>
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17">
-        <v>328917</v>
+        <v>17767</v>
+      </c>
+      <c r="G17">
+        <v>2907</v>
+      </c>
+      <c r="H17">
+        <v>14860</v>
       </c>
       <c r="I17">
-        <v>2016</v>
-      </c>
-      <c r="J17">
-        <v>0.05</v>
-      </c>
-      <c r="K17">
-        <v>0.2</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17">
-        <v>27225129</v>
+        <v>2014</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18">
-        <v>17767</v>
+        <v>16731</v>
       </c>
       <c r="G18">
-        <v>2907</v>
+        <v>7481</v>
       </c>
       <c r="H18">
-        <v>14860</v>
+        <v>9250</v>
       </c>
       <c r="I18">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
       <c r="F19">
-        <v>16731</v>
+        <v>40255</v>
       </c>
       <c r="G19">
-        <v>7481</v>
+        <v>9784</v>
       </c>
       <c r="H19">
-        <v>9250</v>
+        <v>30471</v>
       </c>
       <c r="I19">
-        <v>2011</v>
+        <v>2016</v>
+      </c>
+      <c r="J19">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="K19">
+        <v>0.7</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19">
+        <v>27329760</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20">
-        <v>40255</v>
+        <v>51710</v>
       </c>
       <c r="G20">
-        <v>9784</v>
+        <v>20352</v>
       </c>
       <c r="H20">
-        <v>30471</v>
+        <v>31358</v>
       </c>
       <c r="I20">
-        <v>2016</v>
-      </c>
-      <c r="J20">
-        <v>5.8400000000000001E-2</v>
-      </c>
-      <c r="K20">
-        <v>0.7</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20">
-        <v>27329760</v>
+        <v>2018</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>27089181</v>
+      </c>
+      <c r="E21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
       <c r="F21">
-        <v>51710</v>
-      </c>
-      <c r="G21">
-        <v>20352</v>
-      </c>
-      <c r="H21">
-        <v>31358</v>
+        <v>161460</v>
       </c>
       <c r="I21">
-        <v>2018</v>
+        <v>2016</v>
+      </c>
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="K21">
+        <v>0.3</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21">
+        <v>27089181</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22">
-        <v>27089181</v>
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
       </c>
       <c r="F22">
-        <v>161460</v>
+        <v>17375</v>
       </c>
       <c r="I22">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="J22">
         <v>0.1</v>
       </c>
       <c r="K22">
-        <v>0.3</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>86</v>
+        <v>0.4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="M22">
-        <v>27089181</v>
+        <v>21173776</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F23">
-        <v>17375</v>
+        <v>329821</v>
       </c>
       <c r="I23">
-        <v>2012</v>
-      </c>
-      <c r="J23">
-        <v>0.1</v>
-      </c>
-      <c r="K23">
-        <v>0.4</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M23">
-        <v>21173776</v>
+        <v>2017</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F24">
-        <v>329821</v>
+        <v>24751</v>
+      </c>
+      <c r="G24">
+        <v>4796</v>
+      </c>
+      <c r="H24">
+        <v>19955</v>
       </c>
       <c r="I24">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>27089181</v>
+      </c>
+      <c r="E25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
       <c r="F25">
-        <v>24751</v>
-      </c>
-      <c r="G25">
-        <v>4796</v>
-      </c>
-      <c r="H25">
-        <v>19955</v>
+        <v>208420</v>
       </c>
       <c r="I25">
         <v>2016</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
       </c>
       <c r="D26">
-        <v>27089181</v>
+        <v>25056061</v>
       </c>
       <c r="E26" t="s">
         <v>48</v>
       </c>
       <c r="F26">
-        <v>208420</v>
+        <v>77171</v>
+      </c>
+      <c r="G26">
+        <v>32894</v>
+      </c>
+      <c r="H26">
+        <v>44277</v>
       </c>
       <c r="I26">
+        <v>2014</v>
+      </c>
+      <c r="J26">
+        <v>0.09</v>
+      </c>
+      <c r="K26">
+        <v>0.8</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M26">
+        <v>26523775</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="2">
+        <v>28604731</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="2">
+        <v>113006</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="L27" s="3">
+        <v>28604731</v>
+      </c>
+      <c r="M27" s="2">
+        <v>28604731</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28">
+        <v>29566793</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28">
+        <v>33976</v>
+      </c>
+      <c r="G28">
+        <v>17832</v>
+      </c>
+      <c r="H28">
+        <v>16144</v>
+      </c>
+      <c r="I28">
         <v>2016</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27">
-        <v>25056061</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27">
-        <v>77171</v>
-      </c>
-      <c r="G27">
-        <v>32894</v>
-      </c>
-      <c r="H27">
-        <v>44277</v>
-      </c>
-      <c r="I27">
-        <v>2014</v>
-      </c>
-      <c r="J27">
-        <v>0.09</v>
-      </c>
-      <c r="K27">
-        <v>0.8</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M27">
-        <v>26523775</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="3">
-        <v>28604731</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="N28" t="s">
         <v>123</v>
-      </c>
-      <c r="F28" s="3">
-        <v>113006</v>
-      </c>
-      <c r="I28" s="3">
-        <v>2017</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="L28" s="4">
-        <v>28604731</v>
-      </c>
-      <c r="M28" s="3">
-        <v>28604731</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29">
+        <v>29566793</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F29">
-        <v>61220</v>
+        <v>80610</v>
       </c>
       <c r="G29">
-        <v>33332</v>
+        <v>20806</v>
       </c>
       <c r="H29">
-        <v>27888</v>
+        <v>59804</v>
       </c>
       <c r="I29">
-        <v>2013</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>124</v>
+        <v>2018</v>
+      </c>
+      <c r="N29" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30">
-        <v>29566793</v>
+        <v>26754954</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="2">
-        <v>80610</v>
-      </c>
-      <c r="G30" s="2">
-        <v>20806</v>
-      </c>
-      <c r="H30" s="2">
-        <v>59804</v>
+        <v>94</v>
+      </c>
+      <c r="F30">
+        <v>18186</v>
+      </c>
+      <c r="G30">
+        <v>7016</v>
+      </c>
+      <c r="H30">
+        <v>14745</v>
       </c>
       <c r="I30">
-        <v>2018</v>
+        <v>2016</v>
+      </c>
+      <c r="N30" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D31">
-        <v>29566793</v>
+        <v>26754954</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F31">
-        <v>33976</v>
+        <v>18186</v>
       </c>
       <c r="G31">
-        <v>17832</v>
+        <v>7016</v>
       </c>
       <c r="H31">
-        <v>16144</v>
+        <v>14745</v>
       </c>
       <c r="I31">
         <v>2016</v>
       </c>
+      <c r="N31" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D32">
-        <v>26754954</v>
+        <v>22057235</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="F32">
-        <v>18186</v>
+        <v>24269</v>
       </c>
       <c r="G32">
-        <v>7016</v>
+        <v>12041</v>
       </c>
       <c r="H32">
-        <v>14745</v>
+        <v>12228</v>
       </c>
       <c r="I32">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2011</v>
+      </c>
+      <c r="N32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D33">
         <v>26343387</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="2">
+        <v>95</v>
+      </c>
+      <c r="F33">
         <v>184305</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33">
         <v>60801</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33">
         <v>123504</v>
       </c>
       <c r="I33">
         <v>2015</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>21378990</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="2">
+        <v>95</v>
+      </c>
+      <c r="F34">
         <v>86995</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34">
         <v>22233</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34">
         <v>64762</v>
       </c>
       <c r="I34">
         <v>2011</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D35">
+        <v>26961502</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35">
+        <v>117775</v>
+      </c>
+      <c r="G35">
+        <v>4040</v>
+      </c>
+      <c r="H35">
+        <v>113735</v>
+      </c>
+      <c r="I35">
+        <v>2016</v>
+      </c>
+      <c r="N35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36">
         <v>28566273</v>
       </c>
-      <c r="E35" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36">
         <v>159208</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G36">
         <v>26676</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H36">
         <v>132532</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I36">
         <v>2017</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36">
-        <v>26961502</v>
-      </c>
-      <c r="E36" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="2">
-        <v>117775</v>
-      </c>
-      <c r="G36" s="2">
-        <v>4040</v>
-      </c>
-      <c r="H36" s="2">
-        <v>113735</v>
-      </c>
-      <c r="I36">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D37">
         <v>30617256</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="2">
+        <v>103</v>
+      </c>
+      <c r="F37">
         <v>455258</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
         <v>71880</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37">
         <v>383378</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37">
         <v>2019</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D38">
         <v>31308545</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="2">
+        <v>33</v>
+      </c>
+      <c r="F38">
         <v>72517</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38">
         <v>16992</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38">
         <v>55525</v>
       </c>
       <c r="I38">
         <v>2019</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D39">
         <v>29273806</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="2">
+        <v>108</v>
+      </c>
+      <c r="F39">
         <v>385822</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39">
         <v>44301</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39">
         <v>341521</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39">
         <v>2018</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D40">
         <v>22451204</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" s="2">
+        <v>110</v>
+      </c>
+      <c r="F40">
         <v>8477</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
         <v>4238</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40">
         <v>4239</v>
       </c>
       <c r="I40">
         <v>2012</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D41">
         <v>26743605</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="2">
+        <v>115</v>
+      </c>
+      <c r="F41">
         <v>2821</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
         <v>1263</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41">
         <v>1558</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41">
         <v>2015</v>
+      </c>
+      <c r="N41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42">
+        <v>24390342</v>
+      </c>
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42">
+        <v>58284</v>
+      </c>
+      <c r="G42">
+        <v>14361</v>
+      </c>
+      <c r="H42">
+        <v>43923</v>
+      </c>
+      <c r="I42">
+        <v>2014</v>
+      </c>
+      <c r="N42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43">
+        <v>30323354</v>
+      </c>
+      <c r="E43" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43">
+        <v>1469</v>
+      </c>
+      <c r="G43">
+        <v>5979</v>
+      </c>
+      <c r="H43">
+        <v>7448</v>
+      </c>
+      <c r="I43">
+        <v>2018</v>
+      </c>
+      <c r="N43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44">
+        <v>29471430</v>
+      </c>
+      <c r="E44" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44">
+        <v>33870</v>
+      </c>
+      <c r="G44">
+        <v>6692</v>
+      </c>
+      <c r="H44">
+        <v>27178</v>
+      </c>
+      <c r="I44">
+        <v>2018</v>
+      </c>
+      <c r="N44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45">
+        <v>28439101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45">
+        <v>9537</v>
+      </c>
+      <c r="G45">
+        <v>2424</v>
+      </c>
+      <c r="H45">
+        <v>7113</v>
+      </c>
+      <c r="I45">
+        <v>2017</v>
+      </c>
+      <c r="N45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46">
+        <v>30664745</v>
+      </c>
+      <c r="E46" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46">
+        <v>455221</v>
+      </c>
+      <c r="G46">
+        <v>77052</v>
+      </c>
+      <c r="H46">
+        <v>378169</v>
+      </c>
+      <c r="I46">
+        <v>2019</v>
+      </c>
+      <c r="N46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47">
+        <v>30804565</v>
+      </c>
+      <c r="E47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47">
+        <v>385333</v>
+      </c>
+      <c r="G47">
+        <v>10172</v>
+      </c>
+      <c r="H47">
+        <v>375161</v>
+      </c>
+      <c r="I47">
+        <v>2019</v>
+      </c>
+      <c r="N47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48">
+        <v>31427789</v>
+      </c>
+      <c r="E48" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48">
+        <v>289307</v>
+      </c>
+      <c r="G48">
+        <v>11381</v>
+      </c>
+      <c r="H48">
+        <v>277926</v>
+      </c>
+      <c r="I48">
+        <v>2019</v>
+      </c>
+      <c r="N48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49">
+        <v>31427789</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49">
+        <v>99665</v>
+      </c>
+      <c r="G49">
+        <v>189642</v>
+      </c>
+      <c r="H49">
+        <v>289307</v>
+      </c>
+      <c r="I49">
+        <v>2019</v>
+      </c>
+      <c r="N49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50">
+        <v>27863252</v>
+      </c>
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50">
+        <v>173039</v>
+      </c>
+      <c r="I50">
+        <v>2016</v>
+      </c>
+      <c r="N50" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
